--- a/analisis/analisis_palacio.xlsx
+++ b/analisis/analisis_palacio.xlsx
@@ -2620,6 +2620,30 @@
       <c r="A2" t="str">
         <v>DEPARTAMENTO: TALENTO HUMANO</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4771,6 +4795,30 @@
       <c r="A77" t="str">
         <v>DEPARTAMENTO: SEGURIDAD</v>
       </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -6922,6 +6970,30 @@
       <c r="A152" t="str">
         <v>DEPARTAMENTO: TECNOLOGÍA</v>
       </c>
+      <c r="B152" t="str">
+        <v/>
+      </c>
+      <c r="C152" t="str">
+        <v/>
+      </c>
+      <c r="D152" t="str">
+        <v/>
+      </c>
+      <c r="E152" t="str">
+        <v/>
+      </c>
+      <c r="F152" t="str">
+        <v/>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <v/>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -9073,6 +9145,30 @@
       <c r="A227" t="str">
         <v>DEPARTAMENTO: A_B STEWARDS</v>
       </c>
+      <c r="B227" t="str">
+        <v/>
+      </c>
+      <c r="C227" t="str">
+        <v/>
+      </c>
+      <c r="D227" t="str">
+        <v/>
+      </c>
+      <c r="E227" t="str">
+        <v/>
+      </c>
+      <c r="F227" t="str">
+        <v/>
+      </c>
+      <c r="G227" t="str">
+        <v/>
+      </c>
+      <c r="H227" t="str">
+        <v/>
+      </c>
+      <c r="I227" t="str">
+        <v/>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -11224,6 +11320,30 @@
       <c r="A302" t="str">
         <v>DEPARTAMENTO: A_B SERVICIO</v>
       </c>
+      <c r="B302" t="str">
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <v/>
+      </c>
+      <c r="D302" t="str">
+        <v/>
+      </c>
+      <c r="E302" t="str">
+        <v/>
+      </c>
+      <c r="F302" t="str">
+        <v/>
+      </c>
+      <c r="G302" t="str">
+        <v/>
+      </c>
+      <c r="H302" t="str">
+        <v/>
+      </c>
+      <c r="I302" t="str">
+        <v/>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -13375,6 +13495,30 @@
       <c r="A377" t="str">
         <v>DEPARTAMENTO: A_B BARES</v>
       </c>
+      <c r="B377" t="str">
+        <v/>
+      </c>
+      <c r="C377" t="str">
+        <v/>
+      </c>
+      <c r="D377" t="str">
+        <v/>
+      </c>
+      <c r="E377" t="str">
+        <v/>
+      </c>
+      <c r="F377" t="str">
+        <v/>
+      </c>
+      <c r="G377" t="str">
+        <v/>
+      </c>
+      <c r="H377" t="str">
+        <v/>
+      </c>
+      <c r="I377" t="str">
+        <v/>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
@@ -15526,6 +15670,30 @@
       <c r="A452" t="str">
         <v>DEPARTAMENTO: MANTENIMIENTO</v>
       </c>
+      <c r="B452" t="str">
+        <v/>
+      </c>
+      <c r="C452" t="str">
+        <v/>
+      </c>
+      <c r="D452" t="str">
+        <v/>
+      </c>
+      <c r="E452" t="str">
+        <v/>
+      </c>
+      <c r="F452" t="str">
+        <v/>
+      </c>
+      <c r="G452" t="str">
+        <v/>
+      </c>
+      <c r="H452" t="str">
+        <v/>
+      </c>
+      <c r="I452" t="str">
+        <v/>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
@@ -17677,6 +17845,30 @@
       <c r="A527" t="str">
         <v>DEPARTAMENTO: A_B COCINAS</v>
       </c>
+      <c r="B527" t="str">
+        <v/>
+      </c>
+      <c r="C527" t="str">
+        <v/>
+      </c>
+      <c r="D527" t="str">
+        <v/>
+      </c>
+      <c r="E527" t="str">
+        <v/>
+      </c>
+      <c r="F527" t="str">
+        <v/>
+      </c>
+      <c r="G527" t="str">
+        <v/>
+      </c>
+      <c r="H527" t="str">
+        <v/>
+      </c>
+      <c r="I527" t="str">
+        <v/>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="str">
@@ -19828,6 +20020,30 @@
       <c r="A602" t="str">
         <v>DEPARTAMENTO: RECEPCIÓN</v>
       </c>
+      <c r="B602" t="str">
+        <v/>
+      </c>
+      <c r="C602" t="str">
+        <v/>
+      </c>
+      <c r="D602" t="str">
+        <v/>
+      </c>
+      <c r="E602" t="str">
+        <v/>
+      </c>
+      <c r="F602" t="str">
+        <v/>
+      </c>
+      <c r="G602" t="str">
+        <v/>
+      </c>
+      <c r="H602" t="str">
+        <v/>
+      </c>
+      <c r="I602" t="str">
+        <v/>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="str">
@@ -21979,6 +22195,30 @@
       <c r="A677" t="str">
         <v>DEPARTAMENTO: TIENDAS</v>
       </c>
+      <c r="B677" t="str">
+        <v/>
+      </c>
+      <c r="C677" t="str">
+        <v/>
+      </c>
+      <c r="D677" t="str">
+        <v/>
+      </c>
+      <c r="E677" t="str">
+        <v/>
+      </c>
+      <c r="F677" t="str">
+        <v/>
+      </c>
+      <c r="G677" t="str">
+        <v/>
+      </c>
+      <c r="H677" t="str">
+        <v/>
+      </c>
+      <c r="I677" t="str">
+        <v/>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="str">
@@ -24130,6 +24370,30 @@
       <c r="A752" t="str">
         <v>DEPARTAMENTO: GRUPOS &amp; CONVENCIONES</v>
       </c>
+      <c r="B752" t="str">
+        <v/>
+      </c>
+      <c r="C752" t="str">
+        <v/>
+      </c>
+      <c r="D752" t="str">
+        <v/>
+      </c>
+      <c r="E752" t="str">
+        <v/>
+      </c>
+      <c r="F752" t="str">
+        <v/>
+      </c>
+      <c r="G752" t="str">
+        <v/>
+      </c>
+      <c r="H752" t="str">
+        <v/>
+      </c>
+      <c r="I752" t="str">
+        <v/>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
@@ -26281,6 +26545,30 @@
       <c r="A827" t="str">
         <v>DEPARTAMENTO: CAMARISTAS</v>
       </c>
+      <c r="B827" t="str">
+        <v/>
+      </c>
+      <c r="C827" t="str">
+        <v/>
+      </c>
+      <c r="D827" t="str">
+        <v/>
+      </c>
+      <c r="E827" t="str">
+        <v/>
+      </c>
+      <c r="F827" t="str">
+        <v/>
+      </c>
+      <c r="G827" t="str">
+        <v/>
+      </c>
+      <c r="H827" t="str">
+        <v/>
+      </c>
+      <c r="I827" t="str">
+        <v/>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="str">
@@ -28316,6 +28604,30 @@
       <c r="A898" t="str">
         <v>DEPARTAMENTO: AMA DE LLAVES</v>
       </c>
+      <c r="B898" t="str">
+        <v/>
+      </c>
+      <c r="C898" t="str">
+        <v/>
+      </c>
+      <c r="D898" t="str">
+        <v/>
+      </c>
+      <c r="E898" t="str">
+        <v/>
+      </c>
+      <c r="F898" t="str">
+        <v/>
+      </c>
+      <c r="G898" t="str">
+        <v/>
+      </c>
+      <c r="H898" t="str">
+        <v/>
+      </c>
+      <c r="I898" t="str">
+        <v/>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="str">
@@ -30467,6 +30779,30 @@
       <c r="A973" t="str">
         <v>DEPARTAMENTO: SERVICIO UNIFORMADO</v>
       </c>
+      <c r="B973" t="str">
+        <v/>
+      </c>
+      <c r="C973" t="str">
+        <v/>
+      </c>
+      <c r="D973" t="str">
+        <v/>
+      </c>
+      <c r="E973" t="str">
+        <v/>
+      </c>
+      <c r="F973" t="str">
+        <v/>
+      </c>
+      <c r="G973" t="str">
+        <v/>
+      </c>
+      <c r="H973" t="str">
+        <v/>
+      </c>
+      <c r="I973" t="str">
+        <v/>
+      </c>
     </row>
     <row r="974">
       <c r="A974" t="str">
@@ -32618,6 +32954,30 @@
       <c r="A1048" t="str">
         <v>DEPARTAMENTO: SERVICIO IMPERIAL</v>
       </c>
+      <c r="B1048" t="str">
+        <v/>
+      </c>
+      <c r="C1048" t="str">
+        <v/>
+      </c>
+      <c r="D1048" t="str">
+        <v/>
+      </c>
+      <c r="E1048" t="str">
+        <v/>
+      </c>
+      <c r="F1048" t="str">
+        <v/>
+      </c>
+      <c r="G1048" t="str">
+        <v/>
+      </c>
+      <c r="H1048" t="str">
+        <v/>
+      </c>
+      <c r="I1048" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" t="str">
@@ -34769,6 +35129,30 @@
       <c r="A1123" t="str">
         <v>DEPARTAMENTO: CONTABILIDAD</v>
       </c>
+      <c r="B1123" t="str">
+        <v/>
+      </c>
+      <c r="C1123" t="str">
+        <v/>
+      </c>
+      <c r="D1123" t="str">
+        <v/>
+      </c>
+      <c r="E1123" t="str">
+        <v/>
+      </c>
+      <c r="F1123" t="str">
+        <v/>
+      </c>
+      <c r="G1123" t="str">
+        <v/>
+      </c>
+      <c r="H1123" t="str">
+        <v/>
+      </c>
+      <c r="I1123" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" t="str">
@@ -36920,6 +37304,30 @@
       <c r="A1198" t="str">
         <v>DEPARTAMENTO: A_B ADMINISTRACIÓN</v>
       </c>
+      <c r="B1198" t="str">
+        <v/>
+      </c>
+      <c r="C1198" t="str">
+        <v/>
+      </c>
+      <c r="D1198" t="str">
+        <v/>
+      </c>
+      <c r="E1198" t="str">
+        <v/>
+      </c>
+      <c r="F1198" t="str">
+        <v/>
+      </c>
+      <c r="G1198" t="str">
+        <v/>
+      </c>
+      <c r="H1198" t="str">
+        <v/>
+      </c>
+      <c r="I1198" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" t="str">
@@ -39071,6 +39479,30 @@
       <c r="A1273" t="str">
         <v>DEPARTAMENTO: ÁREAS PÚBLICAS</v>
       </c>
+      <c r="B1273" t="str">
+        <v/>
+      </c>
+      <c r="C1273" t="str">
+        <v/>
+      </c>
+      <c r="D1273" t="str">
+        <v/>
+      </c>
+      <c r="E1273" t="str">
+        <v/>
+      </c>
+      <c r="F1273" t="str">
+        <v/>
+      </c>
+      <c r="G1273" t="str">
+        <v/>
+      </c>
+      <c r="H1273" t="str">
+        <v/>
+      </c>
+      <c r="I1273" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" t="str">
@@ -41222,6 +41654,30 @@
       <c r="A1348" t="str">
         <v>DEPARTAMENTO: CAJAS DEPARTAMENTALES</v>
       </c>
+      <c r="B1348" t="str">
+        <v/>
+      </c>
+      <c r="C1348" t="str">
+        <v/>
+      </c>
+      <c r="D1348" t="str">
+        <v/>
+      </c>
+      <c r="E1348" t="str">
+        <v/>
+      </c>
+      <c r="F1348" t="str">
+        <v/>
+      </c>
+      <c r="G1348" t="str">
+        <v/>
+      </c>
+      <c r="H1348" t="str">
+        <v/>
+      </c>
+      <c r="I1348" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" t="str">
@@ -43257,6 +43713,30 @@
       <c r="A1419" t="str">
         <v>DEPARTAMENTO: SPA</v>
       </c>
+      <c r="B1419" t="str">
+        <v/>
+      </c>
+      <c r="C1419" t="str">
+        <v/>
+      </c>
+      <c r="D1419" t="str">
+        <v/>
+      </c>
+      <c r="E1419" t="str">
+        <v/>
+      </c>
+      <c r="F1419" t="str">
+        <v/>
+      </c>
+      <c r="G1419" t="str">
+        <v/>
+      </c>
+      <c r="H1419" t="str">
+        <v/>
+      </c>
+      <c r="I1419" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" t="str">
@@ -45291,6 +45771,30 @@
     <row r="1490">
       <c r="A1490" t="str">
         <v>DEPARTAMENTO: KIDS CLUB</v>
+      </c>
+      <c r="B1490" t="str">
+        <v/>
+      </c>
+      <c r="C1490" t="str">
+        <v/>
+      </c>
+      <c r="D1490" t="str">
+        <v/>
+      </c>
+      <c r="E1490" t="str">
+        <v/>
+      </c>
+      <c r="F1490" t="str">
+        <v/>
+      </c>
+      <c r="G1490" t="str">
+        <v/>
+      </c>
+      <c r="H1490" t="str">
+        <v/>
+      </c>
+      <c r="I1490" t="str">
+        <v/>
       </c>
     </row>
     <row r="1491">
